--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>复习Hibernate的对象关系映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决了插入数据冲突问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决插入数据冲突问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -850,6 +862,20 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>解决插入数据冲突问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21：00-23：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习web包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -876,6 +884,20 @@
       </c>
       <c r="D24" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>学习web包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收dao,sevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收dao,sevice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -898,6 +910,20 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>验收dao,sevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-12:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -924,6 +936,20 @@
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,26 @@
   </si>
   <si>
     <t>10:30-12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/10-2018/6/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习准备期末考试，暂时没有进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试找web错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试找web错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -950,6 +970,42 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>调试找web错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1006,6 +1014,34 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/log/log_201508030229_夏文良.xlsx
+++ b/log/log_201508030229_夏文良.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>调试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-24:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1032,15 +1048,57 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
